--- a/DinnerLunch.xlsx
+++ b/DinnerLunch.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/inoue.lab_2021/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{529461DD-3E0E-DF4E-B81E-74515E7A441F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C8708F-DEC7-6A45-A34D-FC92484F5F11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12720" yWindow="7540" windowWidth="28300" windowHeight="17440"/>
+    <workbookView xWindow="12720" yWindow="7540" windowWidth="28300" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DinnerLunch" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19">
     <font>
       <sz val="12"/>
@@ -976,11 +976,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B177"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection sqref="A1:B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1537,546 +1537,6 @@
         <v>10.09</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
-      <c r="A70">
-        <v>20.23</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71">
-        <v>15.01</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72">
-        <v>12.02</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73">
-        <v>17.07</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74">
-        <v>26.86</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75">
-        <v>25.28</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76">
-        <v>14.73</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77">
-        <v>10.51</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78">
-        <v>17.920000000000002</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79">
-        <v>28.97</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80">
-        <v>22.49</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81">
-        <v>5.75</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82">
-        <v>16.32</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83">
-        <v>22.75</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84">
-        <v>40.17</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85">
-        <v>27.28</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86">
-        <v>12.03</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87">
-        <v>21.01</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1">
-      <c r="A88">
-        <v>12.46</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1">
-      <c r="A89">
-        <v>11.35</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1">
-      <c r="A90">
-        <v>15.38</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1">
-      <c r="A91">
-        <v>44.3</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1">
-      <c r="A92">
-        <v>22.42</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1">
-      <c r="A93">
-        <v>20.92</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1">
-      <c r="A94">
-        <v>15.36</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95">
-        <v>20.49</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96">
-        <v>25.21</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97">
-        <v>18.239999999999998</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98">
-        <v>14.31</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1">
-      <c r="A100">
-        <v>7.25</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1">
-      <c r="A101">
-        <v>38.07</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102">
-        <v>23.95</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1">
-      <c r="A103">
-        <v>25.71</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1">
-      <c r="A104">
-        <v>17.309999999999999</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1">
-      <c r="A105">
-        <v>29.93</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1">
-      <c r="A106">
-        <v>14.07</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1">
-      <c r="A107">
-        <v>13.13</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1">
-      <c r="A108">
-        <v>17.260000000000002</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1">
-      <c r="A109">
-        <v>24.55</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1">
-      <c r="A110">
-        <v>19.77</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1">
-      <c r="A111">
-        <v>29.85</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1">
-      <c r="A112">
-        <v>48.17</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1">
-      <c r="A113">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1">
-      <c r="A114">
-        <v>13.39</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1">
-      <c r="A115">
-        <v>16.489999999999998</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1">
-      <c r="A116">
-        <v>21.5</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1">
-      <c r="A117">
-        <v>12.66</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1">
-      <c r="A118">
-        <v>16.21</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1">
-      <c r="A119">
-        <v>13.81</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1">
-      <c r="A120">
-        <v>17.510000000000002</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1">
-      <c r="A121">
-        <v>24.52</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1">
-      <c r="A122">
-        <v>20.76</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1">
-      <c r="A123">
-        <v>31.71</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1">
-      <c r="A124">
-        <v>10.59</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1">
-      <c r="A125">
-        <v>10.63</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1">
-      <c r="A126">
-        <v>50.81</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1">
-      <c r="A127">
-        <v>15.81</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1">
-      <c r="A128">
-        <v>7.25</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1">
-      <c r="A129">
-        <v>31.85</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1">
-      <c r="A130">
-        <v>16.82</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1">
-      <c r="A131">
-        <v>32.9</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1">
-      <c r="A132">
-        <v>17.89</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1">
-      <c r="A133">
-        <v>14.48</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1">
-      <c r="A134">
-        <v>9.6</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1">
-      <c r="A135">
-        <v>34.630000000000003</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1">
-      <c r="A136">
-        <v>34.65</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1">
-      <c r="A137">
-        <v>23.33</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1">
-      <c r="A138">
-        <v>45.35</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1">
-      <c r="A139">
-        <v>23.17</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1">
-      <c r="A140">
-        <v>40.549999999999997</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1">
-      <c r="A141">
-        <v>20.69</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1">
-      <c r="A142">
-        <v>20.9</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1">
-      <c r="A143">
-        <v>30.46</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1">
-      <c r="A144">
-        <v>18.149999999999999</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1">
-      <c r="A145">
-        <v>23.1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1">
-      <c r="A146">
-        <v>15.69</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1">
-      <c r="A147">
-        <v>26.59</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1">
-      <c r="A148">
-        <v>38.729999999999997</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1">
-      <c r="A149">
-        <v>24.27</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1">
-      <c r="A150">
-        <v>12.76</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1">
-      <c r="A151">
-        <v>30.06</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1">
-      <c r="A152">
-        <v>25.89</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1">
-      <c r="A153">
-        <v>48.33</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1">
-      <c r="A154">
-        <v>13.27</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1">
-      <c r="A155">
-        <v>28.17</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1">
-      <c r="A156">
-        <v>12.9</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1">
-      <c r="A157">
-        <v>28.15</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1">
-      <c r="A158">
-        <v>11.59</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1">
-      <c r="A159">
-        <v>7.74</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1">
-      <c r="A160">
-        <v>30.14</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1">
-      <c r="A161">
-        <v>20.45</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1">
-      <c r="A162">
-        <v>13.28</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1">
-      <c r="A163">
-        <v>22.12</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1">
-      <c r="A164">
-        <v>24.01</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1">
-      <c r="A165">
-        <v>15.69</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1">
-      <c r="A166">
-        <v>11.61</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1">
-      <c r="A167">
-        <v>10.77</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1">
-      <c r="A168">
-        <v>15.53</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1">
-      <c r="A169">
-        <v>10.07</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1">
-      <c r="A170">
-        <v>12.6</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1">
-      <c r="A171">
-        <v>32.83</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1">
-      <c r="A172">
-        <v>35.83</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1">
-      <c r="A173">
-        <v>29.03</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1">
-      <c r="A174">
-        <v>27.18</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1">
-      <c r="A175">
-        <v>22.67</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1">
-      <c r="A176">
-        <v>17.82</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1">
-      <c r="A177">
-        <v>18.78</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
